--- a/app/Licenciatura_em_Psicologia_das_Organizacoes.xlsx
+++ b/app/Licenciatura_em_Psicologia_das_Organizacoes.xlsx
@@ -12,28 +12,25 @@
     <sheet name="20153987" sheetId="2" r:id="rId5"/>
     <sheet name="20153989" sheetId="3" r:id="rId6"/>
     <sheet name="20154004" sheetId="4" r:id="rId7"/>
-    <sheet name="20154485" sheetId="5" r:id="rId8"/>
-    <sheet name="20154001" sheetId="6" r:id="rId9"/>
-    <sheet name="20153991" sheetId="7" r:id="rId10"/>
-    <sheet name="20153993" sheetId="8" r:id="rId11"/>
-    <sheet name="20154484" sheetId="9" r:id="rId12"/>
-    <sheet name="20153998" sheetId="10" r:id="rId13"/>
-    <sheet name="20154002" sheetId="11" r:id="rId14"/>
-    <sheet name="20154003" sheetId="12" r:id="rId15"/>
-    <sheet name="20153995" sheetId="13" r:id="rId16"/>
-    <sheet name="20153992" sheetId="14" r:id="rId17"/>
-    <sheet name="20153990" sheetId="15" r:id="rId18"/>
-    <sheet name="20154006" sheetId="16" r:id="rId19"/>
-    <sheet name="20153988" sheetId="17" r:id="rId20"/>
-    <sheet name="20154785" sheetId="18" r:id="rId21"/>
-    <sheet name="20154000" sheetId="19" r:id="rId22"/>
-    <sheet name="20153999" sheetId="20" r:id="rId23"/>
-    <sheet name="20153996" sheetId="21" r:id="rId24"/>
-    <sheet name="20153997" sheetId="22" r:id="rId25"/>
-    <sheet name="20154005" sheetId="23" r:id="rId26"/>
-    <sheet name="20153994" sheetId="24" r:id="rId27"/>
-    <sheet name="Sheet2" sheetId="25" r:id="rId28"/>
-    <sheet name="Sheet3" sheetId="26" r:id="rId29"/>
+    <sheet name="20154001" sheetId="5" r:id="rId8"/>
+    <sheet name="20153991" sheetId="6" r:id="rId9"/>
+    <sheet name="20153993" sheetId="7" r:id="rId10"/>
+    <sheet name="20153998" sheetId="8" r:id="rId11"/>
+    <sheet name="20154002" sheetId="9" r:id="rId12"/>
+    <sheet name="20154003" sheetId="10" r:id="rId13"/>
+    <sheet name="20153995" sheetId="11" r:id="rId14"/>
+    <sheet name="20153992" sheetId="12" r:id="rId15"/>
+    <sheet name="20153990" sheetId="13" r:id="rId16"/>
+    <sheet name="20154006" sheetId="14" r:id="rId17"/>
+    <sheet name="20153988" sheetId="15" r:id="rId18"/>
+    <sheet name="20154000" sheetId="16" r:id="rId19"/>
+    <sheet name="20153999" sheetId="17" r:id="rId20"/>
+    <sheet name="20153996" sheetId="18" r:id="rId21"/>
+    <sheet name="20153997" sheetId="19" r:id="rId22"/>
+    <sheet name="20154005" sheetId="20" r:id="rId23"/>
+    <sheet name="20153994" sheetId="21" r:id="rId24"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId25"/>
+    <sheet name="Sheet3" sheetId="23" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -190,9 +187,6 @@
     <t>EsperanÇa  Manhique</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Lizarda Xavier</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110504570100P</t>
   </si>
   <si>
@@ -268,15 +259,6 @@
     <t>Outra - Cid.Maputo</t>
   </si>
   <si>
-    <t>Nhamussua</t>
-  </si>
-  <si>
-    <t>Minolta Carlos</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Namutubua</t>
   </si>
   <si>
@@ -316,9 +298,6 @@
     <t>Almerinda Mangue</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101806828B</t>
   </si>
   <si>
@@ -343,9 +322,6 @@
     <t xml:space="preserve">Irene Gulene Bauque </t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100400013A</t>
   </si>
   <si>
@@ -355,12 +331,6 @@
     <t>Escola Sec Armando Emilio Guebuza</t>
   </si>
   <si>
-    <t>Micas</t>
-  </si>
-  <si>
-    <t>Loide Albertina</t>
-  </si>
-  <si>
     <t>Matavel</t>
   </si>
   <si>
@@ -535,21 +505,12 @@
     <t>Gravelina Marcos Chiulele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100282138I</t>
   </si>
   <si>
     <t>+258847270869</t>
   </si>
   <si>
-    <t>Comé</t>
-  </si>
-  <si>
-    <t>Júlia Albano</t>
-  </si>
-  <si>
     <t>Checo</t>
   </si>
   <si>
@@ -610,9 +571,6 @@
     <t>Francisca Andicene</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110104601101B</t>
   </si>
   <si>
@@ -632,9 +590,6 @@
   </si>
   <si>
     <t>InÊs Raul Mefranca</t>
-  </si>
-  <si>
-    <t>Cidade de Beira</t>
   </si>
   <si>
     <t>110201803123P</t>
@@ -1924,7 +1879,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153998</v>
+        <v>20154003</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -1948,7 +1903,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1964,7 +1919,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1980,7 +1935,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1996,7 +1951,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2012,7 +1967,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2027,9 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2037,7 +1990,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2048,7 +2001,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2057,7 +2010,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2069,7 +2022,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2077,7 +2030,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2173,7 +2126,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2200,7 +2153,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2216,7 +2169,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2519,7 +2472,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154002</v>
+        <v>20153995</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2543,7 +2496,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2559,7 +2512,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2575,7 +2528,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2591,7 +2544,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2607,7 +2560,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2622,9 +2575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2632,7 +2583,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2643,7 +2594,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2652,7 +2603,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2664,7 +2615,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2672,7 +2623,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2768,7 +2719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2811,7 +2762,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3114,7 +3065,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154003</v>
+        <v>20153992</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3138,7 +3089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3154,7 +3105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3170,7 +3121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3186,7 +3137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3202,7 +3153,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3217,9 +3168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3227,7 +3176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3238,7 +3187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3247,7 +3196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3259,7 +3208,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3267,7 +3216,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3363,7 +3312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3390,7 +3339,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3406,7 +3355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3709,7 +3658,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153995</v>
+        <v>20153990</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3733,7 +3682,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3749,7 +3698,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3765,7 +3714,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3781,7 +3730,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3797,7 +3746,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3812,9 +3761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3822,7 +3769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3833,7 +3780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3842,7 +3789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3854,7 +3801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3862,7 +3809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3958,7 +3905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3985,7 +3932,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4001,7 +3948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4304,7 +4251,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153992</v>
+        <v>20154006</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4328,7 +4275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4344,7 +4291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4360,7 +4307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4376,7 +4323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4392,7 +4339,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4407,9 +4354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4417,7 +4362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4428,7 +4373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4437,7 +4382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4449,15 +4394,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>142</v>
+      <c r="H17" s="20">
+        <v>384032</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4553,7 +4498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4580,7 +4525,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4596,7 +4541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4899,7 +4844,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153990</v>
+        <v>20153988</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4923,7 +4868,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4939,7 +4884,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4955,7 +4900,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4971,7 +4916,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4987,7 +4932,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5002,9 +4947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5012,7 +4955,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5023,7 +4966,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5032,7 +4975,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5044,7 +4987,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5052,7 +4995,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5148,7 +5091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5191,7 +5134,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5494,7 +5437,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154006</v>
+        <v>20154000</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5518,7 +5461,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5534,7 +5477,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5550,7 +5493,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5566,7 +5509,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5582,7 +5525,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5597,9 +5540,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5607,7 +5548,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5618,7 +5559,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5627,7 +5568,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5639,15 +5580,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>384032</v>
+      <c r="H17" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5743,7 +5684,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5770,7 +5711,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5786,7 +5727,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6089,7 +6030,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153988</v>
+        <v>20153999</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6113,7 +6054,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6129,7 +6070,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6145,7 +6086,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6161,7 +6102,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6177,7 +6118,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6192,9 +6133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>164</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6202,7 +6141,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6213,7 +6152,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6222,7 +6161,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6234,7 +6173,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6242,7 +6181,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6338,7 +6277,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6365,7 +6304,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6381,7 +6320,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6632,7 +6571,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6682,7 +6623,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154785</v>
+        <v>20153996</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6706,7 +6647,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6722,7 +6663,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6737,7 +6678,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6751,7 +6694,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6765,7 +6710,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6786,7 +6733,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6795,14 +6744,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -6812,13 +6765,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -6913,7 +6870,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6939,7 +6896,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -6953,7 +6912,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7255,7 +7216,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154000</v>
+        <v>20153997</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7279,7 +7240,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7295,7 +7256,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7311,7 +7272,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7327,7 +7288,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7343,7 +7304,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7358,9 +7319,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7368,7 +7327,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7379,7 +7338,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7388,7 +7347,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7400,7 +7359,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7408,7 +7367,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7504,7 +7463,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7531,7 +7490,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7547,7 +7506,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7953,9 +7912,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7963,7 +7920,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7974,7 +7931,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7983,7 +7940,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7995,7 +7952,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8003,7 +7960,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8099,7 +8056,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8142,7 +8099,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8445,7 +8402,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153999</v>
+        <v>20154005</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8469,7 +8426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8485,7 +8442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8501,7 +8458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8517,7 +8474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8533,7 +8490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8548,9 +8505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8558,7 +8513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8569,7 +8524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8578,7 +8533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8590,7 +8545,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8598,7 +8553,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8694,7 +8649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8737,7 +8692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9040,7 +8995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153996</v>
+        <v>20153994</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9064,7 +9019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9080,7 +9035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9096,7 +9051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9112,7 +9067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9128,7 +9083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9143,9 +9098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9153,7 +9106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9164,7 +9117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9173,7 +9126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9185,15 +9138,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>190</v>
+      <c r="H17" s="20">
+        <v>25400006903</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9289,7 +9242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9316,7 +9269,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9332,7 +9285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9535,1791 +9488,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153997</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154005</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153994</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>25400006903</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -11343,7 +9511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11500,7 +9668,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11516,7 +9684,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11532,7 +9700,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11548,7 +9716,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11564,7 +9732,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11579,9 +9747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11589,7 +9755,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11600,7 +9766,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11609,7 +9775,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11621,7 +9787,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11629,7 +9795,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11725,7 +9891,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11768,7 +9934,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12095,7 +10261,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12111,7 +10277,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12127,7 +10293,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12143,7 +10309,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12159,7 +10325,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12174,9 +10340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12184,7 +10348,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12195,7 +10359,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12204,7 +10368,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12216,7 +10380,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12224,7 +10388,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12320,7 +10484,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12363,7 +10527,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12614,7 +10778,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12664,7 +10830,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154485</v>
+        <v>20154001</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12688,7 +10854,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12704,7 +10870,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12719,7 +10885,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12733,7 +10901,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12747,7 +10917,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12768,7 +10940,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12777,14 +10951,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12794,13 +10972,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12895,7 +11077,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12921,7 +11103,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12935,7 +11119,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13237,7 +11423,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154001</v>
+        <v>20153991</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13261,7 +11447,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13277,7 +11463,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13293,7 +11479,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13309,7 +11495,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13325,7 +11511,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13340,9 +11526,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13350,7 +11534,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13361,7 +11545,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13370,7 +11554,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13382,7 +11566,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13390,7 +11574,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13486,7 +11670,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13513,7 +11697,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13529,7 +11713,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13832,7 +12016,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153991</v>
+        <v>20153993</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13856,7 +12040,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13872,7 +12056,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13888,7 +12072,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13904,7 +12088,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13920,7 +12104,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13935,9 +12119,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13945,7 +12127,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13956,7 +12138,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13965,7 +12147,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13977,7 +12159,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13985,7 +12167,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14081,7 +12263,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14108,7 +12290,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14124,7 +12306,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14427,7 +12609,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153993</v>
+        <v>20153998</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14451,7 +12633,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14467,7 +12649,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14483,7 +12665,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14499,7 +12681,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14515,7 +12697,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14530,9 +12712,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14540,7 +12720,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14551,7 +12731,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14560,7 +12740,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14572,7 +12752,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14580,7 +12760,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14676,7 +12856,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14703,7 +12883,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14719,7 +12899,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14970,7 +13150,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15020,7 +13202,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154484</v>
+        <v>20154002</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15044,7 +13226,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15060,7 +13242,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15075,7 +13257,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15089,7 +13273,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15103,7 +13289,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15124,7 +13312,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15133,14 +13323,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15150,13 +13344,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15251,7 +13449,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15277,7 +13475,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15291,7 +13491,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
